--- a/Docs/Project Management/Gantt_Chart.xlsx
+++ b/Docs/Project Management/Gantt_Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libaries\Uni Work\Year 3\Part III Project\Docs\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Year 3\Part III Project\Docs\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12075" windowHeight="21435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,25 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>mw16g12</author>
     <author>Merlin</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exam period</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +60,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In france:
+12th - 20th Dec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +288,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +320,96 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFC00000"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -517,11 +641,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -571,12 +732,58 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -873,11 +1080,13 @@
     <col min="7" max="8" width="6.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" style="14" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="13" customWidth="1"/>
-    <col min="11" max="13" width="6.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="72" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="55" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="79" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="13" customWidth="1"/>
-    <col min="16" max="17" width="6.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="54" customWidth="1"/>
+    <col min="16" max="17" width="6.85546875" style="55" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="56" customWidth="1"/>
     <col min="19" max="19" width="6.85546875" style="13" customWidth="1"/>
     <col min="20" max="21" width="6.85546875" style="4" customWidth="1"/>
     <col min="22" max="22" width="6.85546875" style="14" customWidth="1"/>
@@ -897,45 +1106,45 @@
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
-      <c r="E1" s="44"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="42"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="44"/>
+      <c r="O1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="47"/>
       <c r="S1" s="41" t="s">
         <v>9</v>
       </c>
       <c r="T1" s="42"/>
       <c r="U1" s="42"/>
-      <c r="V1" s="43"/>
+      <c r="V1" s="44"/>
       <c r="W1" s="41" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="42"/>
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
-      <c r="AA1" s="43"/>
+      <c r="AA1" s="44"/>
       <c r="AB1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="AC1" s="42"/>
       <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
+      <c r="AE1" s="44"/>
       <c r="AF1" s="36"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
@@ -977,28 +1186,28 @@
       <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="77" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="50" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="7" t="s">
@@ -1063,14 +1272,14 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53"/>
       <c r="S3" s="17"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
@@ -1100,7 +1309,7 @@
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1111,14 +1320,14 @@
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="26"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="59"/>
       <c r="S6" s="27"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
@@ -1140,63 +1349,86 @@
       <c r="A7" s="22" t="s">
         <v>39</v>
       </c>
+      <c r="F7" s="84"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="20"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="61"/>
       <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="82"/>
     </row>
     <row r="9" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="21"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="82"/>
     </row>
     <row r="10" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="64"/>
     </row>
     <row r="11" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="20"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="29"/>
+      <c r="P11" s="68"/>
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:40" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="11"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="82"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="67"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="20"/>
@@ -1205,9 +1437,10 @@
       <c r="A13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="19"/>
+      <c r="O13" s="62"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="67"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="38"/>
@@ -1216,9 +1449,11 @@
       <c r="A14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="19"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="67"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
     </row>
@@ -1226,9 +1461,9 @@
       <c r="A15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="19"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="30"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
     </row>
@@ -1346,7 +1581,7 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="25"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1359,20 +1594,20 @@
         <v>47</v>
       </c>
       <c r="J28" s="11"/>
-      <c r="K28" s="9"/>
+      <c r="K28" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AB1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Project Management/Gantt_Chart.xlsx
+++ b/Docs/Project Management/Gantt_Chart.xlsx
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,18 +393,6 @@
     <fill>
       <patternFill patternType="lightUp">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF00B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF0070C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="FFFF0000"/>
         <bgColor theme="0"/>
       </patternFill>
     </fill>
@@ -682,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -780,8 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1066,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1307,7 @@
       <c r="I6" s="26"/>
       <c r="J6" s="27"/>
       <c r="K6" s="73"/>
-      <c r="L6" s="58"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="80"/>
       <c r="N6" s="26"/>
       <c r="O6" s="57"/>
@@ -1349,14 +1335,14 @@
       <c r="A7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="84"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>
       <c r="K7" s="74"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="81"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="12"/>
       <c r="O7" s="60"/>
       <c r="P7" s="61"/>
@@ -1373,7 +1359,7 @@
       <c r="J8" s="67"/>
       <c r="K8" s="75"/>
       <c r="L8" s="69"/>
-      <c r="M8" s="82"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -1385,7 +1371,7 @@
       <c r="J9" s="67"/>
       <c r="K9" s="75"/>
       <c r="L9" s="69"/>
-      <c r="M9" s="82"/>
+      <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -1396,7 +1382,7 @@
       <c r="J10" s="30"/>
       <c r="K10" s="76"/>
       <c r="L10" s="69"/>
-      <c r="M10" s="82"/>
+      <c r="M10" s="80"/>
       <c r="N10" s="65"/>
       <c r="O10" s="64"/>
     </row>
@@ -1409,7 +1395,7 @@
       <c r="J11" s="67"/>
       <c r="K11" s="75"/>
       <c r="L11" s="69"/>
-      <c r="M11" s="82"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="29"/>
       <c r="P11" s="68"/>
       <c r="S11" s="19"/>
@@ -1423,12 +1409,12 @@
       <c r="J12" s="67"/>
       <c r="K12" s="75"/>
       <c r="L12" s="69"/>
-      <c r="M12" s="82"/>
+      <c r="M12" s="80"/>
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="69"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="67"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="11"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="20"/>
@@ -1439,7 +1425,7 @@
       </c>
       <c r="O13" s="62"/>
       <c r="Q13" s="69"/>
-      <c r="R13" s="83"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="67"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
@@ -1452,7 +1438,7 @@
       <c r="O14" s="64"/>
       <c r="P14" s="63"/>
       <c r="Q14" s="69"/>
-      <c r="R14" s="83"/>
+      <c r="R14" s="81"/>
       <c r="S14" s="67"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
@@ -1462,7 +1448,7 @@
         <v>36</v>
       </c>
       <c r="Q15" s="69"/>
-      <c r="R15" s="83"/>
+      <c r="R15" s="81"/>
       <c r="S15" s="30"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
